--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PBRAVO_EXT\git\SeleniumRobot\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PBRAVO_EXT\git\SeleniumBCS\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,9 +104,6 @@
     <t>3000</t>
   </si>
   <si>
-    <t>780,47</t>
-  </si>
-  <si>
     <t>Compra + No arbitraje + Cuenta Inversion</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>985,47</t>
+  </si>
+  <si>
+    <t>850,47</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,15 +556,15 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -632,7 +632,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -644,15 +644,15 @@
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -688,15 +688,15 @@
         <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -729,18 +729,18 @@
         <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -773,18 +773,18 @@
         <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -820,15 +820,15 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -864,15 +864,15 @@
         <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -905,18 +905,18 @@
         <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -949,18 +949,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -996,15 +996,15 @@
         <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -1040,15 +1040,15 @@
         <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1084,15 +1084,15 @@
         <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -1128,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PBRAVO_EXT\git\SeleniumBCS\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PBRAVO_EXT\RobotBCS\SeleniumBCS\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
   <si>
     <t>rut</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
   <si>
     <t>0,9</t>
@@ -493,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,51 +561,51 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -632,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -644,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>40</v>
@@ -652,7 +649,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -664,19 +661,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -685,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>40</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -732,7 +729,7 @@
         <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>40</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -749,22 +746,22 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -773,18 +770,18 @@
         <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -804,11 +801,11 @@
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -820,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>41</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -840,19 +837,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -861,10 +858,10 @@
         <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>41</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -895,7 +892,7 @@
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -908,7 +905,7 @@
         <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>41</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -925,22 +922,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -949,18 +946,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -981,10 +978,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -996,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>40</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1013,19 +1010,19 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>45</v>
@@ -1040,15 +1037,15 @@
         <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1062,17 +1059,17 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1084,53 +1081,9 @@
         <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PBRAVO_EXT\RobotBCS\SeleniumBCS\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Spot" sheetId="1" r:id="rId1"/>
+    <sheet name="RV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="100">
   <si>
     <t>rut</t>
   </si>
@@ -162,6 +159,168 @@
   </si>
   <si>
     <t>850,47</t>
+  </si>
+  <si>
+    <t>COMPRA + CUSTODIA + CUENTA INVERSION</t>
+  </si>
+  <si>
+    <t>COMPRA + CUSTODIA + TESORERÍA</t>
+  </si>
+  <si>
+    <t>COMPRA + NOMINAL + CUENTA INVERSION</t>
+  </si>
+  <si>
+    <t>COMPRA + NOMINAL + TESORERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VENTA + CUSTODIA + CUENTA INVERSION</t>
+  </si>
+  <si>
+    <t>VENTA + CUSTODIA + TESORERÍA</t>
+  </si>
+  <si>
+    <t>VENTA + NOMINAL + CUENTA INVERSION</t>
+  </si>
+  <si>
+    <t>VENTA + NOMINAL + TESORERIA</t>
+  </si>
+  <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>ENTEL</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>precioLimite</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>mecanismoCaptacion</t>
+  </si>
+  <si>
+    <t>ORDEN ESCRITA</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>LIMITE</t>
+  </si>
+  <si>
+    <t>condicionLiquidacion</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>bolsaDestino</t>
+  </si>
+  <si>
+    <t>BOLSA DE COMERCIO DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>monedaLIquidacion</t>
+  </si>
+  <si>
+    <t>PESO CHILENO</t>
+  </si>
+  <si>
+    <t>DOLAR</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>RENTA VARIABLE</t>
+  </si>
+  <si>
+    <t>COMPRA ACCIONES NACIONALES</t>
+  </si>
+  <si>
+    <t>VENTA ACCIONES NACIONALES</t>
+  </si>
+  <si>
+    <t>VENTA ACCIONES EXTRANJERAS</t>
+  </si>
+  <si>
+    <t>COMPRA ACCIONES EXTRANJERAS</t>
+  </si>
+  <si>
+    <t>tipoInstrumento</t>
+  </si>
+  <si>
+    <t>ACN - ACCIONES NACIONALES</t>
+  </si>
+  <si>
+    <t>ACX - ACCIONES EXTRANJERAS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TipoOperacion</t>
+  </si>
+  <si>
+    <t>COLOCOLO</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>AZULAZUL</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>CHILEB</t>
+  </si>
+  <si>
+    <t>ARNC</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ANASAC</t>
+  </si>
+  <si>
+    <t>AGUNSA</t>
+  </si>
+  <si>
+    <t>ALMENDRAL</t>
+  </si>
+  <si>
+    <t>AGUAS-A</t>
+  </si>
+  <si>
+    <t>AFPCAPITAL</t>
+  </si>
+  <si>
+    <t>MOLLER</t>
+  </si>
+  <si>
+    <t>COPEC</t>
+  </si>
+  <si>
+    <t>transferencia</t>
+  </si>
+  <si>
+    <t>nominal</t>
   </si>
 </sst>
 </file>
@@ -492,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,4 +1250,1038 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="15" width="32.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>